--- a/1_TestCase การลงเวลาเข้างาน-ออกงาน.xlsx
+++ b/1_TestCase การลงเวลาเข้างาน-ออกงาน.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CO-OP\WORK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CO-OP\CubeSoftTech_WorkingSpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0AC3DA-3868-4FCD-856D-3BF93F623817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DD05DC-B324-4454-8C37-1B56D1BAE082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5544" yWindow="2940" windowWidth="12204" windowHeight="10272" xr2:uid="{83A7AF7B-2050-45DC-9D0C-DDF450A906AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{83A7AF7B-2050-45DC-9D0C-DDF450A906AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="93">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -213,39 +213,6 @@
   <si>
     <t>Check : Check-OUT
 Date : 27-07-2021</t>
-  </si>
-  <si>
-    <t>UAT-CHECK-001</t>
-  </si>
-  <si>
-    <t>UAT-CHECK-002</t>
-  </si>
-  <si>
-    <t>UAT-CHECK-003</t>
-  </si>
-  <si>
-    <t>UAT-CHECK-004</t>
-  </si>
-  <si>
-    <t>UAT-CHECK-005</t>
-  </si>
-  <si>
-    <t>UAT-CHECK-006</t>
-  </si>
-  <si>
-    <t>UAT-CHECK-007</t>
-  </si>
-  <si>
-    <t>UAT-CHECK-009</t>
-  </si>
-  <si>
-    <t>UAT-CHECK-010</t>
-  </si>
-  <si>
-    <t>UAT-CHECK-011</t>
-  </si>
-  <si>
-    <t>UAT-CHECK-012</t>
   </si>
   <si>
     <r>
@@ -558,9 +525,6 @@
     </r>
   </si>
   <si>
-    <t>UAT-CHECK-008</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">ผู้ใช้ต้องมีสิทธิ์ในการเข้าถึงฟังก์ชันการลงเวลาเข้างาน - ออกงาน และต้องเข้าสู่ระบบในขั้นตอน UAT-CHECK-001
 </t>
@@ -1088,12 +1052,51 @@
   <si>
     <t>จะเช็คอินแต่กดไปเช็คเอ้าท์</t>
   </si>
+  <si>
+    <t>TC-CHECK-001</t>
+  </si>
+  <si>
+    <t>TC-CHECK-002</t>
+  </si>
+  <si>
+    <t>TC-CHECK-003</t>
+  </si>
+  <si>
+    <t>TC-CHECK-004</t>
+  </si>
+  <si>
+    <t>TC-CHECK-005</t>
+  </si>
+  <si>
+    <t>TC-CHECK-006</t>
+  </si>
+  <si>
+    <t>TC-CHECK-007</t>
+  </si>
+  <si>
+    <t>TC-CHECK-008</t>
+  </si>
+  <si>
+    <t>TC-CHECK-009</t>
+  </si>
+  <si>
+    <t>TC-CHECK-010</t>
+  </si>
+  <si>
+    <t>TC-CHECK-011</t>
+  </si>
+  <si>
+    <t>TC-CHECK-012</t>
+  </si>
+  <si>
+    <t>TC-CHECK-013</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1122,6 +1125,12 @@
     </font>
     <font>
       <sz val="16"/>
+      <name val="TH Sarabun New"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="TH Sarabun New"/>
       <family val="2"/>
     </font>
@@ -1265,9 +1274,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1287,9 +1293,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1299,6 +1302,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1377,10 +1384,10 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>511629</xdr:colOff>
+      <xdr:colOff>306919</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1259489</xdr:rowOff>
     </xdr:from>
@@ -1388,7 +1395,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>3254829</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>3301980</xdr:rowOff>
+      <xdr:rowOff>3454400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1411,8 +1418,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17471572" y="18513346"/>
-          <a:ext cx="2743200" cy="2042491"/>
+          <a:off x="19014019" y="17642489"/>
+          <a:ext cx="2947910" cy="2194911"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1421,7 +1428,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457201</xdr:colOff>
@@ -1465,7 +1472,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
@@ -1509,7 +1516,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>119744</xdr:colOff>
@@ -1553,7 +1560,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>130629</xdr:colOff>
@@ -1641,7 +1648,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>77384</xdr:colOff>
@@ -1685,7 +1692,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>250371</xdr:colOff>
@@ -1729,7 +1736,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>413656</xdr:colOff>
@@ -1773,7 +1780,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>250371</xdr:colOff>
@@ -1817,7 +1824,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>87086</xdr:colOff>
@@ -1863,16 +1870,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>870856</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>923003</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>863600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2253956</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>412456</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>16833</xdr:rowOff>
+      <xdr:rowOff>2558987</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1895,8 +1902,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11778342" y="17295117"/>
-          <a:ext cx="5356385" cy="4406059"/>
+          <a:off x="40233600" y="20993100"/>
+          <a:ext cx="2063456" cy="1695387"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2207,8 +2214,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2BF6FB-99F8-4E10-B2E4-C294B6F37801}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
@@ -2273,7 +2281,7 @@
     </row>
     <row r="3" spans="1:10" s="5" customFormat="1" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="29" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -2287,7 +2295,7 @@
     </row>
     <row r="4" spans="1:10" ht="319.8" x14ac:dyDescent="0.7">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
@@ -2305,12 +2313,12 @@
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>11</v>
       </c>
       <c r="J4" s="9" t="s">
@@ -2319,16 +2327,16 @@
     </row>
     <row r="5" spans="1:10" ht="246" x14ac:dyDescent="0.7">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>29</v>
@@ -2337,12 +2345,12 @@
         <v>26</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -2351,16 +2359,16 @@
     </row>
     <row r="6" spans="1:10" ht="246" x14ac:dyDescent="0.7">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>29</v>
@@ -2369,21 +2377,21 @@
         <v>26</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="295.2" x14ac:dyDescent="0.7">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -2392,113 +2400,115 @@
         <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="17"/>
+        <v>37</v>
+      </c>
+      <c r="I7" s="16"/>
       <c r="J7" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="295.2" x14ac:dyDescent="0.7">
       <c r="A8" s="3" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="17"/>
+        <v>69</v>
+      </c>
+      <c r="I8" s="16"/>
       <c r="J8" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="25" customFormat="1" ht="123" x14ac:dyDescent="0.7">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="1:10" s="23" customFormat="1" ht="123" x14ac:dyDescent="0.7">
+      <c r="A9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24">
+      <c r="C9" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22">
         <v>44235</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="295.2" x14ac:dyDescent="0.7">
       <c r="A10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="17"/>
+        <v>66</v>
+      </c>
+      <c r="I10" s="16"/>
       <c r="J10" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="270.60000000000002" x14ac:dyDescent="0.7">
       <c r="A11" s="3" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>21</v>
@@ -2510,82 +2520,82 @@
         <v>30</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="17"/>
+        <v>57</v>
+      </c>
+      <c r="I11" s="16"/>
       <c r="J11" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="270.60000000000002" x14ac:dyDescent="0.7">
       <c r="A12" s="3" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="I12" s="16"/>
       <c r="J12" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="295.2" x14ac:dyDescent="0.7">
       <c r="A13" s="3" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="246" x14ac:dyDescent="0.7">
       <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>18</v>
@@ -2594,110 +2604,122 @@
         <v>15</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="I14" s="20"/>
+        <v>77</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="19"/>
       <c r="J14" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="295.2" x14ac:dyDescent="0.7">
       <c r="A15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I15" s="20"/>
+        <v>75</v>
+      </c>
+      <c r="I15" s="19"/>
       <c r="J15" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="295.2" x14ac:dyDescent="0.7">
       <c r="A16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16" s="19"/>
+        <v>75</v>
+      </c>
+      <c r="I16" s="18"/>
       <c r="J16" s="9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="A17" s="14"/>
-      <c r="B17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="15"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="B18" s="2" t="s">
-        <v>52</v>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="B19" s="2" t="s">
-        <v>55</v>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="B20" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.7">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.7">
-      <c r="B23" s="2" t="s">
-        <v>91</v>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
